--- a/test_data/jbg_test_case.xlsx
+++ b/test_data/jbg_test_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="908" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="908" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GetPassSafeMobile" sheetId="2" r:id="rId1"/>
@@ -2501,7 +2501,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2824,8 +2824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -3494,7 +3494,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -5284,7 +5284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
